--- a/Duet-MainPCB/JLCSMT/JLCSMT_CPL.xlsx
+++ b/Duet-MainPCB/JLCSMT/JLCSMT_CPL.xlsx
@@ -1031,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A226" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E259" activeCellId="0" sqref="E259"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E128" activeCellId="0" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3200,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="E127" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3472,7 +3472,7 @@
         <v>6</v>
       </c>
       <c r="E143" s="1" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="E144" s="1" t="n">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,13 +3500,13 @@
         <v>378.61875</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>-32.35</v>
+        <v>-37.455</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E145" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3523,7 +3523,7 @@
         <v>6</v>
       </c>
       <c r="E146" s="1" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Duet-MainPCB/JLCSMT/JLCSMT_CPL.xlsx
+++ b/Duet-MainPCB/JLCSMT/JLCSMT_CPL.xlsx
@@ -1031,8 +1031,8 @@
   </sheetPr>
   <dimension ref="A1:E264"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A119" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E128" activeCellId="0" sqref="E128"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A212" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I254" activeCellId="0" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3540,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="E147" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3557,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3574,7 +3574,7 @@
         <v>6</v>
       </c>
       <c r="E149" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,7 +3591,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3608,7 +3608,7 @@
         <v>6</v>
       </c>
       <c r="E151" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3659,7 +3659,7 @@
         <v>6</v>
       </c>
       <c r="E154" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3676,7 +3676,7 @@
         <v>6</v>
       </c>
       <c r="E155" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,7 +3693,7 @@
         <v>6</v>
       </c>
       <c r="E156" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3710,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="E157" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3727,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="E158" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3744,7 +3744,7 @@
         <v>6</v>
       </c>
       <c r="E159" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3778,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3795,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="E162" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3812,7 @@
         <v>6</v>
       </c>
       <c r="E163" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3829,7 +3829,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3846,7 +3846,7 @@
         <v>6</v>
       </c>
       <c r="E165" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3863,7 +3863,7 @@
         <v>6</v>
       </c>
       <c r="E166" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="E167" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3897,7 +3897,7 @@
         <v>6</v>
       </c>
       <c r="E168" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3914,7 +3914,7 @@
         <v>6</v>
       </c>
       <c r="E169" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3931,7 +3931,7 @@
         <v>6</v>
       </c>
       <c r="E170" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,7 +3948,7 @@
         <v>6</v>
       </c>
       <c r="E171" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,7 +3965,7 @@
         <v>6</v>
       </c>
       <c r="E172" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="E173" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,7 +3999,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,7 +4016,7 @@
         <v>6</v>
       </c>
       <c r="E175" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4033,7 @@
         <v>6</v>
       </c>
       <c r="E176" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="E177" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="E178" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,7 +4084,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,7 +4101,7 @@
         <v>6</v>
       </c>
       <c r="E180" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,7 +4118,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,7 +4135,7 @@
         <v>6</v>
       </c>
       <c r="E182" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,7 +4152,7 @@
         <v>6</v>
       </c>
       <c r="E183" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="E184" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,7 +4186,7 @@
         <v>6</v>
       </c>
       <c r="E185" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,7 +4203,7 @@
         <v>6</v>
       </c>
       <c r="E186" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,7 +4237,7 @@
         <v>6</v>
       </c>
       <c r="E188" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,7 +4254,7 @@
         <v>6</v>
       </c>
       <c r="E189" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4271,7 @@
         <v>6</v>
       </c>
       <c r="E190" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4288,7 @@
         <v>6</v>
       </c>
       <c r="E191" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,7 +4305,7 @@
         <v>6</v>
       </c>
       <c r="E192" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="E193" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,7 +4339,7 @@
         <v>6</v>
       </c>
       <c r="E194" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,7 +4356,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,7 +4373,7 @@
         <v>6</v>
       </c>
       <c r="E196" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,7 +4390,7 @@
         <v>6</v>
       </c>
       <c r="E197" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,7 +4407,7 @@
         <v>6</v>
       </c>
       <c r="E198" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4424,7 @@
         <v>6</v>
       </c>
       <c r="E199" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="E200" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4458,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="E201" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,7 +4475,7 @@
         <v>6</v>
       </c>
       <c r="E202" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,7 +4492,7 @@
         <v>6</v>
       </c>
       <c r="E203" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4509,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="E204" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4526,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="E205" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="E206" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="E207" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4577,7 @@
         <v>6</v>
       </c>
       <c r="E208" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4594,7 +4594,7 @@
         <v>6</v>
       </c>
       <c r="E209" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,7 +4611,7 @@
         <v>6</v>
       </c>
       <c r="E210" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4628,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4645,7 +4645,7 @@
         <v>6</v>
       </c>
       <c r="E212" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,7 +4662,7 @@
         <v>6</v>
       </c>
       <c r="E213" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="E214" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4713,7 +4713,7 @@
         <v>6</v>
       </c>
       <c r="E216" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4730,7 +4730,7 @@
         <v>6</v>
       </c>
       <c r="E217" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,7 +4747,7 @@
         <v>6</v>
       </c>
       <c r="E218" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4764,7 +4764,7 @@
         <v>6</v>
       </c>
       <c r="E219" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,7 +4781,7 @@
         <v>6</v>
       </c>
       <c r="E220" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="E221" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4815,7 +4815,7 @@
         <v>6</v>
       </c>
       <c r="E222" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +4832,7 @@
         <v>6</v>
       </c>
       <c r="E223" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,7 +4849,7 @@
         <v>6</v>
       </c>
       <c r="E224" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,7 +4866,7 @@
         <v>6</v>
       </c>
       <c r="E225" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="E226" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,7 +4900,7 @@
         <v>6</v>
       </c>
       <c r="E227" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,7 +4917,7 @@
         <v>6</v>
       </c>
       <c r="E228" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,7 +4934,7 @@
         <v>6</v>
       </c>
       <c r="E229" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,7 +4951,7 @@
         <v>6</v>
       </c>
       <c r="E230" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +4968,7 @@
         <v>6</v>
       </c>
       <c r="E231" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4985,7 +4985,7 @@
         <v>6</v>
       </c>
       <c r="E232" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,7 +5002,7 @@
         <v>6</v>
       </c>
       <c r="E233" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5019,7 +5019,7 @@
         <v>6</v>
       </c>
       <c r="E234" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,7 +5036,7 @@
         <v>6</v>
       </c>
       <c r="E235" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5053,7 +5053,7 @@
         <v>6</v>
       </c>
       <c r="E236" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5070,7 +5070,7 @@
         <v>6</v>
       </c>
       <c r="E237" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5087,7 +5087,7 @@
         <v>6</v>
       </c>
       <c r="E238" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5104,7 @@
         <v>6</v>
       </c>
       <c r="E239" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="E240" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,7 +5138,7 @@
         <v>6</v>
       </c>
       <c r="E241" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,7 +5155,7 @@
         <v>6</v>
       </c>
       <c r="E242" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,7 +5172,7 @@
         <v>6</v>
       </c>
       <c r="E243" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5189,7 @@
         <v>6</v>
       </c>
       <c r="E244" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,7 +5206,7 @@
         <v>6</v>
       </c>
       <c r="E245" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,7 +5223,7 @@
         <v>6</v>
       </c>
       <c r="E246" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="E247" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5257,7 +5257,7 @@
         <v>6</v>
       </c>
       <c r="E248" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5274,7 +5274,7 @@
         <v>6</v>
       </c>
       <c r="E249" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,7 +5291,7 @@
         <v>6</v>
       </c>
       <c r="E250" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,7 +5308,7 @@
         <v>6</v>
       </c>
       <c r="E251" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5325,7 +5325,7 @@
         <v>6</v>
       </c>
       <c r="E252" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5342,7 +5342,7 @@
         <v>6</v>
       </c>
       <c r="E253" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,7 +5359,7 @@
         <v>6</v>
       </c>
       <c r="E254" s="1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
